--- a/doc/系统经分/老报表迁移计划.xlsx
+++ b/doc/系统经分/老报表迁移计划.xlsx
@@ -289,6 +289,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -307,16 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,7 +626,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,46 +642,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
@@ -699,20 +699,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -735,7 +735,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,15 +778,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
